--- a/codes/小球の自由落下.xlsx
+++ b/codes/小球の自由落下.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taichihirose/workspace/NewWebsite/intro_to_NA/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qu365-my.sharepoint.com/personal/hirose_taichi_599_s_kyushu-u_ac_jp/Documents/workspace/Intro_to_NA2022/codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE3A06B-6F76-CE44-AF45-E30FF41D56C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{4EE3A06B-6F76-CE44-AF45-E30FF41D56C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD8156FB-A411-4CA7-AB8D-009EBD759FB6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="16280" xr2:uid="{D8632B7C-D010-674B-8E95-969FE7583763}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D8632B7C-D010-674B-8E95-969FE7583763}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,1253 +147,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.5108705161854781E-2"/>
-          <c:y val="0.12086385467376744"/>
-          <c:w val="0.83466907261592316"/>
-          <c:h val="0.75038847322507918"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$152</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="151"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.9999999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.10999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.11999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.12999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.13999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.18000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.19000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.20000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.21000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.22000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.23000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.24000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.25000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.26000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.29000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.3000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.31000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.32000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.33000000000000013</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.34000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.35000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.36000000000000015</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.37000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.38000000000000017</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.39000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.40000000000000019</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.4100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.42000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.43000000000000022</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.44000000000000022</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.45000000000000023</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.46000000000000024</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.47000000000000025</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.48000000000000026</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.49000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.50000000000000022</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.51000000000000023</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.52000000000000024</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.53000000000000025</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.54000000000000026</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.55000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.56000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.57000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.58000000000000029</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.5900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.60000000000000031</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.61000000000000032</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.62000000000000033</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.63000000000000034</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.64000000000000035</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.65000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.66000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.67000000000000037</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.68000000000000038</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.69000000000000039</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.7000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.71000000000000041</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.72000000000000042</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.73000000000000043</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.74000000000000044</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.75000000000000044</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.76000000000000045</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.77000000000000046</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.78000000000000047</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.79000000000000048</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.80000000000000049</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.8100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.82000000000000051</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.83000000000000052</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.84000000000000052</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.85000000000000053</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.86000000000000054</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.87000000000000055</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.88000000000000056</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.89000000000000057</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.90000000000000058</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.91000000000000059</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.9200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.9300000000000006</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.94000000000000061</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.95000000000000062</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.96000000000000063</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.97000000000000064</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.98000000000000065</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.99000000000000066</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1.0000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1.0100000000000007</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.0200000000000007</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1.0300000000000007</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.0400000000000007</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.0500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.0600000000000007</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1.0700000000000007</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1.0800000000000007</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1.0900000000000007</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.1000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1.1100000000000008</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1.1200000000000008</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1.1300000000000008</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1.1400000000000008</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1.1500000000000008</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1.1600000000000008</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1.1700000000000008</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.1800000000000008</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1.1900000000000008</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1.2000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1.2100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1.2200000000000009</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1.2300000000000009</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1.2400000000000009</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1.2500000000000009</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1.2600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1.2700000000000009</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1.2800000000000009</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1.2900000000000009</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1.3000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1.3100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1.320000000000001</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1.330000000000001</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1.340000000000001</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1.350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1.360000000000001</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>1.370000000000001</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>1.380000000000001</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>1.390000000000001</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>1.400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>1.410000000000001</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>1.420000000000001</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>1.430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>1.4400000000000011</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>1.4500000000000011</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>1.4600000000000011</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>1.4700000000000011</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>1.4800000000000011</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1.4900000000000011</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>1.5000000000000011</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$152</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="151"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.3259330324759679E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17764386198357782</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25399814373191648</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.32308635488507348</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3855999534816193</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.44216459662785412</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.49334640228441878</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.53965761516512289</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5815617334542128</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6194781476519865</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.65378633797588204</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.68482967232604186</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.71291884282666762</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.7383349753372257</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.76133244305453884</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.78214141236523782</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.80097014642832021</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.8180070895428454</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.83342275316181769</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.84737142242811969</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.85999270031207775</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.87141290480491285</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.88174633315165241</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.89109640577637583</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.89955670134857935</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.907211893349953</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.91413859751504523</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.9204061386272866</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.92607724434472105</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.9312086729994935</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.93585178165431349</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.94005304010120128</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.94385449594678494</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.94729419543888049</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.95040656424612791</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.95322275200165341</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.95577094405906737</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.9580766435809579</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.96016292678311177</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.96205067388904075</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.96375877810627419</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.9653043347159318</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.9667028121680431</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.96796820689499297</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.96911318339252261</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.97014920097025925</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.97108662844033822</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.9719348478919605</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.9727023485904942</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.97339681194089633</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.97402518836579477</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.97459376686765453</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.97510823797122814</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.97557375067623975</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.97599496399030539</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.97637609355784671</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.97672095385167823</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.97703299634953178</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.97731534407760701</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.97757082286686692</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.97780198963490395</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.97801115797643035</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.97820042131851181</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.97837167387228963</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.9785266295908821</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.97866683932320309</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.97879370633538021</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.97890850035511223</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.97901237027953258</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.9791063556737567</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.97919139717519954</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.97926834590779088</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.97933797200031003</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.97940097229409306</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.97945797731725526</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.97950955759522829</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.97955622936077114</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.97959845972059989</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.97963667133035026</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.97967124662465555</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.97970253164468279</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.97973083950142725</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.9797564535094343</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.97977963002230484</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.97980060099836963</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.97981957632220573</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.97983674590523218</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.97985228158640647</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.97986633885204777</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.97987905839199507</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.97989056750767978</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.97990098138619963</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.97991040425315157</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.97991893041575451</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.97992664520671013</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.97993362583823895</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.97993994217484792</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.97994565743255646</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.97995082881158502</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.97995550806883291</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.97995974203587932</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.97996357308768967</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.97996703956671816</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.97997017616665194</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.97997301427963746</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.97997558231046311</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.97997790596084511</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.97998000848665723</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.97998191093068421</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.97998363233322561</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.9799851899226566</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.9799865992878557</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.97998787453422354</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.97998902842485425</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.97999007250827341</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.97999101723401849</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.9799918720572226</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.97999264553324328</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.97999334540328886</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.97999397867189375</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.97999455167702332</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.97999507015350518</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.97999553929042627</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.97999596378306675</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.97999634787989154</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.97999669542507062</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.97999700989695326</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.97999729444287953</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.97999755191068072</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.97999778487718125</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.97999799567398804</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.97999818641082648</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.97999835899665477</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.97999851515877023</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.97999865646009554</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.97999878431482157</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.97999890000256218</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.97999900468115853</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.97999909939826924</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.97999918510185535</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.97999926264966675</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.97999933281782836</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.97999939630860644</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.97999945375743813</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.97999950573929073</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.97999955277441608</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.97999959533355729</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.97999963384266076</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.97999966868713861</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.97999970021572602</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0B6E-D647-999C-BFC04685D88C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1174678687"/>
-        <c:axId val="1190915055"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1174678687"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>時刻</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1190915055"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1190915055"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>速度</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1174678687"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3137,612 +1890,20 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>81972</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>62802</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165099</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>94672</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B7603E-BF18-844F-9065-B5955B1EA95D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>293077</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>198063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>577557</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28135</xdr:rowOff>
+      <xdr:colOff>347282</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111871</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3763,7 +1924,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4075,9 +2236,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
